--- a/MarsUndiscovered/Spreadsheets/Breeds.xlsx
+++ b/MarsUndiscovered/Spreadsheets/Breeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\MarsUndiscovered\MarsUndiscovered\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D211366-4BC2-44BC-A727-EB4502923AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CACBAD-25D8-44BE-8EE8-A4F02C3181C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B3EDC88D-065E-48D2-99EE-6EE48DB38C44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3EDC88D-065E-48D2-99EE-6EE48DB38C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Breeds" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>LineAttackMin</t>
+  </si>
+  <si>
+    <t>LineAttackMax</t>
   </si>
 </sst>
 </file>
@@ -457,25 +463,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6588FC-8195-4803-811E-22447E3C22B0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +512,14 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -533,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
